--- a/resources/Random-User-API-Performance-Stress_Test-report.xlsx
+++ b/resources/Random-User-API-Performance-Stress_Test-report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-SDET\Batch-7\Random-User-API-Performance-Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Road-to-SDET\Batch-7\Random-User-API-Performance-Test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC3684-2EAD-4CCB-9890-7B756404A980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C646DFA-F1D5-4921-A8DC-BD602A865680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4E4C14A0-5A56-4B45-B339-7F6C341D6D5A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Server:https://random-data-api.com/api/v2/users</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>bottleneck/stress test point</t>
+  </si>
+  <si>
+    <t>Test-3</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
@@ -205,6 +208,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
@@ -531,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1E2B6F-24D0-4F91-90A5-B3A6A9A6D6E3}">
   <dimension ref="C1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,38 +555,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -725,7 +731,9 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
